--- a/testdata/subject_save.xlsx
+++ b/testdata/subject_save.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomeizhang/git/Sample/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaomeizhang/git/examples/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6494803-DE93-294A-9DDD-59A037F7C5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F71ABBB-8AE3-FF4B-93F8-2644ACE21434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目配置 - 科目" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="732">
   <si>
     <t>公式</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -574,9 +574,6 @@
   </si>
   <si>
     <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"recruit_fee+recruit_misc_fee"}</t>
-  </si>
-  <si>
-    <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"(sum(people_recruit.v_referal_fee)+sum(people_recruit.v_recruiter_cost))/10000"}</t>
   </si>
   <si>
     <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"accounting_fee_misc.v_recruiting_trip_cost/10000"}</t>
@@ -3984,6 +3981,46 @@
   </si>
   <si>
     <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"sumby(associateByPerson(person_income, people), \"v_group_name\", \"value\",calculate_timeframe)"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组成本合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人成本合计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_expanse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_expanse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">成本合计 (单位：元) </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本合计 (单位：元)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出勤工资+岗位工资+绩效工资+病假工资+加班工资+行政奖惩+笔记本补助+全勤奖+饭补 +合同补助+住房补贴+房租代收+夜班补助+培训补贴+社保费用+外迁服务费+特殊奖励+业务奖惩+招聘费+住宿费+团队活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"sumby(associateByPerson(person_expanse, people), \"v_group_name\", \"value\",calculate_timeframe)"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"(sum(people_recruit.v_referal_fee)+sum(people_recruit.v_recruiter_cost))/10000"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"time_granularity":"MONTH","org_granularity":"project","value_formula":"iteratePerRow(associateByPerson(people_salary,people,people_project,people_admin,people_recruit),\"row.v_attendance_pay+row.v_role_pay+row.v_overtime_pay+row.v_full_attendance_pay+row.v_sickleave_pay+row.v_pay_based_performance+row.v_meal_allowance+row.v_sla_award+row.v_admin_award+row.v_laptop_allowance+row.v_contract_subsidary+row.v_housing_allowance+row.v_rent_managment_fee+row.v_nightshift_subsidary+row.v_training_subsidary+row.v_insurance_paid_by_company+row.v_service_fee+row.v_special_bonus+row.v_recruiter_cost+row.v_housing_cost+row.v_teambuilding_cost\",calculate_timeframe)"}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4809,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F163" zoomScale="101" workbookViewId="0">
-      <selection activeCell="M170" sqref="M170"/>
+    <sheetView tabSelected="1" topLeftCell="H169" zoomScale="160" workbookViewId="0">
+      <selection activeCell="M173" sqref="M173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4844,13 +4881,13 @@
         <v>79</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>196</v>
-      </c>
       <c r="H1" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>80</v>
@@ -4868,7 +4905,7 @@
         <v>84</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>0</v>
@@ -4882,20 +4919,20 @@
         <v>85</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E2" s="56"/>
       <c r="F2" s="43">
         <v>1</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I2" s="56"/>
       <c r="J2" s="48" t="b">
@@ -4905,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N2" s="60"/>
       <c r="O2" s="54"/>
@@ -4918,13 +4955,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
         <v>87</v>
@@ -4933,10 +4970,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H3" s="48" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3">
         <v>10000</v>
@@ -4948,14 +4985,14 @@
         <v>0</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="77" customHeight="1">
@@ -4966,19 +5003,19 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F4" s="43">
         <v>2</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I4">
         <v>10000</v>
@@ -4990,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="42" customHeight="1">
@@ -5004,23 +5041,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>634</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="43">
         <v>3</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I5">
         <v>10000</v>
@@ -5032,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="3" t="s">
@@ -5044,25 +5081,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="43">
         <v>3</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -5071,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>210</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>211</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -5083,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>88</v>
@@ -5095,10 +5132,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I7">
         <v>10000</v>
@@ -5122,25 +5159,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="43">
         <v>4</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -5149,10 +5186,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -5161,10 +5198,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>91</v>
@@ -5173,10 +5210,10 @@
         <v>5</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I9">
         <v>10000</v>
@@ -5188,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>92</v>
@@ -5203,25 +5240,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="43">
         <v>5</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -5230,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -5242,22 +5279,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F11" s="43">
         <v>6</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H11" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I11">
         <v>10000</v>
@@ -5269,11 +5306,11 @@
         <v>0</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="57" customHeight="1">
@@ -5281,25 +5318,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="43">
         <v>6</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -5308,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O12" s="5"/>
     </row>
@@ -5320,10 +5357,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>93</v>
@@ -5332,10 +5369,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I13">
         <v>10000</v>
@@ -5347,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="53" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>94</v>
@@ -5362,25 +5399,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F14" s="43">
         <v>7</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -5389,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -5401,10 +5438,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>95</v>
@@ -5413,10 +5450,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H15" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I15">
         <v>10000</v>
@@ -5440,25 +5477,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="43">
         <v>8</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -5467,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O16" s="6"/>
     </row>
@@ -5479,10 +5516,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>98</v>
@@ -5491,10 +5528,10 @@
         <v>9</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I17">
         <v>10000</v>
@@ -5518,25 +5555,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="43">
         <v>9</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -5545,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O18" s="4"/>
     </row>
@@ -5557,10 +5594,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>101</v>
@@ -5570,10 +5607,10 @@
         <v>10</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I19">
         <v>10000</v>
@@ -5585,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>102</v>
@@ -5600,25 +5637,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" s="43">
         <v>10</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -5627,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -5639,22 +5676,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="43">
         <v>11</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I21">
         <v>10000</v>
@@ -5666,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>103</v>
@@ -5681,25 +5718,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="43">
         <v>11</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -5708,10 +5745,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O22" s="4"/>
     </row>
@@ -5720,10 +5757,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>9</v>
@@ -5732,10 +5769,10 @@
         <v>12</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I23">
         <v>10000</v>
@@ -5747,11 +5784,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N23" s="16"/>
       <c r="O23" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P23" s="25"/>
     </row>
@@ -5760,25 +5797,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F24" s="43">
         <v>12</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -5787,10 +5824,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="25"/>
@@ -5800,10 +5837,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>10</v>
@@ -5812,10 +5849,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I25">
         <v>10000</v>
@@ -5827,11 +5864,11 @@
         <v>0</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="105" customHeight="1">
@@ -5839,25 +5876,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26" s="43">
         <v>13</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -5866,10 +5903,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N26" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -5878,22 +5915,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="43">
         <v>14</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I27">
         <v>10000</v>
@@ -5905,11 +5942,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="48">
@@ -5917,25 +5954,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="E28" t="s">
         <v>247</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="E28" t="s">
-        <v>248</v>
       </c>
       <c r="F28" s="43">
         <v>14</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -5944,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O28" s="34"/>
     </row>
@@ -5956,22 +5993,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F29" s="43">
         <v>15</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H29" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I29">
         <v>10000</v>
@@ -5995,25 +6032,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="E30" t="s">
         <v>591</v>
-      </c>
-      <c r="E30" t="s">
-        <v>592</v>
       </c>
       <c r="F30" s="43">
         <v>15</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -6022,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O30" s="7"/>
     </row>
@@ -6034,22 +6071,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F31" s="43">
         <v>16</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H31" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I31">
         <v>10000</v>
@@ -6073,25 +6110,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="E32" t="s">
         <v>594</v>
-      </c>
-      <c r="E32" t="s">
-        <v>595</v>
       </c>
       <c r="F32" s="43">
         <v>16</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -6100,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N32" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O32" s="8"/>
     </row>
@@ -6112,22 +6149,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F33" s="43">
         <v>17</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H33" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I33">
         <v>10000</v>
@@ -6151,25 +6188,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D34" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" t="s">
         <v>597</v>
-      </c>
-      <c r="E34" t="s">
-        <v>598</v>
       </c>
       <c r="F34" s="43">
         <v>17</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J34" t="b">
         <v>0</v>
@@ -6178,10 +6215,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O34" s="8"/>
     </row>
@@ -6190,10 +6227,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>13</v>
@@ -6202,10 +6239,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H35" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I35">
         <v>10000</v>
@@ -6229,25 +6266,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F36" s="43">
         <v>18</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J36" t="b">
         <v>0</v>
@@ -6256,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N36" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O36" s="8"/>
     </row>
@@ -6268,10 +6305,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>15</v>
@@ -6280,10 +6317,10 @@
         <v>19</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H37" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I37">
         <v>10000</v>
@@ -6307,25 +6344,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F38" s="43">
         <v>19</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J38" t="b">
         <v>0</v>
@@ -6334,10 +6371,10 @@
         <v>0</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O38" s="1"/>
     </row>
@@ -6346,22 +6383,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F39" s="43">
         <v>20</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H39" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I39">
         <v>10000</v>
@@ -6388,25 +6425,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F40" s="43">
         <v>20</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J40" t="b">
         <v>0</v>
@@ -6415,10 +6452,10 @@
         <v>0</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O40" s="1"/>
     </row>
@@ -6427,10 +6464,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D41" s="32" t="s">
         <v>18</v>
@@ -6439,10 +6476,10 @@
         <v>21</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H41" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I41">
         <v>10000</v>
@@ -6466,25 +6503,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C42" t="s">
         <v>264</v>
       </c>
-      <c r="C42" t="s">
-        <v>265</v>
-      </c>
       <c r="D42" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F42" s="43">
         <v>21</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J42" t="b">
         <v>0</v>
@@ -6493,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O42" s="1"/>
     </row>
@@ -6505,22 +6542,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F43" s="43">
         <v>22</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I43">
         <v>10000</v>
@@ -6544,25 +6581,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F44" s="43">
         <v>22</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J44" t="b">
         <v>0</v>
@@ -6571,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O44" s="1"/>
     </row>
@@ -6583,22 +6620,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F45" s="43">
         <v>23</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H45" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I45">
         <v>10000</v>
@@ -6623,25 +6660,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F46" s="43">
         <v>23</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J46" t="b">
         <v>0</v>
@@ -6651,10 +6688,10 @@
       </c>
       <c r="L46"/>
       <c r="M46" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O46" s="1"/>
     </row>
@@ -6663,22 +6700,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F47" s="43">
         <v>24</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H47" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I47">
         <v>10000</v>
@@ -6703,25 +6740,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F48" s="43">
         <v>24</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J48" t="b">
         <v>0</v>
@@ -6731,10 +6768,10 @@
       </c>
       <c r="L48"/>
       <c r="M48" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O48" s="1"/>
     </row>
@@ -6743,7 +6780,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>118</v>
@@ -6755,10 +6792,10 @@
         <v>25</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H49" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I49">
         <v>10000</v>
@@ -6783,25 +6820,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F50" s="43">
         <v>25</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J50" t="b">
         <v>0</v>
@@ -6811,10 +6848,10 @@
       </c>
       <c r="L50"/>
       <c r="M50" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O50" s="1"/>
     </row>
@@ -6823,22 +6860,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F51" s="43">
         <v>26</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H51" s="48" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I51">
         <v>10000</v>
@@ -6862,25 +6899,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F52" s="43">
         <v>26</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J52" t="b">
         <v>0</v>
@@ -6889,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N52" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O52" s="1"/>
     </row>
@@ -6901,22 +6938,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F53" s="43">
         <v>27</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J53" s="48" t="b">
         <v>0</v>
@@ -6925,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="L53" s="45" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N53" s="23"/>
       <c r="O53" s="45"/>
@@ -6938,10 +6975,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>26</v>
@@ -6950,10 +6987,10 @@
         <v>28</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H54" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I54">
         <v>10000</v>
@@ -6965,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="L54" s="53" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N54" s="16"/>
       <c r="O54" s="1" t="s">
@@ -6980,25 +7017,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F55" s="43">
         <v>28</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H55" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J55" t="b">
         <v>0</v>
@@ -7007,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O55" s="1"/>
     </row>
@@ -7019,22 +7056,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F56" s="43">
         <v>29</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I56">
         <v>10000</v>
@@ -7046,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="53" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M56" s="16" t="s">
         <v>121</v>
@@ -7061,25 +7098,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F57" s="43">
         <v>29</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H57" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
@@ -7088,10 +7125,10 @@
         <v>0</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N57" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O57" s="1"/>
     </row>
@@ -7100,10 +7137,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C58" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D58" s="30" t="s">
         <v>122</v>
@@ -7115,10 +7152,10 @@
         <v>30</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I58">
         <v>10000</v>
@@ -7142,25 +7179,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F59" s="43">
         <v>30</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J59" t="b">
         <v>0</v>
@@ -7169,10 +7206,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O59" s="1"/>
     </row>
@@ -7181,22 +7218,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F60" s="43">
         <v>31</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I60">
         <v>10000</v>
@@ -7208,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="53" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M60" s="16" t="s">
         <v>125</v>
@@ -7223,25 +7260,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F61" s="43">
         <v>31</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J61" t="b">
         <v>0</v>
@@ -7250,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N61" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O61" s="1"/>
     </row>
@@ -7262,22 +7299,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F62" s="43">
         <v>32</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I62">
         <v>10000</v>
@@ -7301,25 +7338,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F63" s="43">
         <v>32</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H63" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J63" t="b">
         <v>0</v>
@@ -7328,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="M63" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N63" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O63" s="1"/>
     </row>
@@ -7340,10 +7377,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C64" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D64" s="30" t="s">
         <v>127</v>
@@ -7352,10 +7389,10 @@
         <v>33</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I64">
         <v>10000</v>
@@ -7379,25 +7416,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F65" s="43">
         <v>33</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H65" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J65" t="b">
         <v>0</v>
@@ -7406,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="M65" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O65" s="1"/>
     </row>
@@ -7418,10 +7455,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C66" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>129</v>
@@ -7430,10 +7467,10 @@
         <v>34</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H66" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I66">
         <v>10000</v>
@@ -7457,25 +7494,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F67" s="43">
         <v>34</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H67" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J67" t="b">
         <v>0</v>
@@ -7484,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="M67" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N67" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O67" s="1"/>
     </row>
@@ -7496,22 +7533,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>131</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F68" s="43">
         <v>35</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H68" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I68">
         <v>10000</v>
@@ -7523,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M68" s="16" t="s">
         <v>132</v>
@@ -7538,25 +7575,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F69" s="43">
         <v>35</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H69" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J69" t="b">
         <v>0</v>
@@ -7565,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="M69" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O69" s="4"/>
     </row>
@@ -7577,22 +7614,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F70" s="43">
         <v>36</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H70" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I70">
         <v>10000</v>
@@ -7616,25 +7653,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="43">
         <v>36</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H71" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J71" t="b">
         <v>0</v>
@@ -7643,10 +7680,10 @@
         <v>0</v>
       </c>
       <c r="M71" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="1"/>
     </row>
@@ -7655,22 +7692,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F72" s="43">
         <v>37</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H72" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I72">
         <v>10000</v>
@@ -7694,25 +7731,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F73" s="43">
         <v>37</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J73" t="b">
         <v>0</v>
@@ -7721,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="M73" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="1"/>
     </row>
@@ -7733,10 +7770,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>37</v>
@@ -7745,10 +7782,10 @@
         <v>38</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H74" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I74">
         <v>10000</v>
@@ -7772,25 +7809,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C75" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F75" s="43">
         <v>38</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H75" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J75" t="b">
         <v>0</v>
@@ -7799,10 +7836,10 @@
         <v>0</v>
       </c>
       <c r="M75" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N75" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O75" s="1"/>
     </row>
@@ -7811,22 +7848,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F76" s="43">
         <v>39</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H76" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I76">
         <v>10000</v>
@@ -7850,25 +7887,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F77" s="43">
         <v>39</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H77" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J77" t="b">
         <v>0</v>
@@ -7877,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="M77" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="1"/>
     </row>
@@ -7889,22 +7926,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F78" s="43">
         <v>40</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H78" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I78">
         <v>10000</v>
@@ -7916,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N78" s="16"/>
       <c r="O78" s="1" t="s">
@@ -7931,22 +7968,22 @@
         <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F79" s="43">
         <v>40</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H79" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J79" t="b">
         <v>0</v>
@@ -7955,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="M79" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N79" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O79" s="1"/>
     </row>
@@ -7967,22 +8004,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F80" s="43">
         <v>41</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H80" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I80">
         <v>10000</v>
@@ -8006,25 +8043,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E81" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F81" s="43">
         <v>41</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
@@ -8033,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="M81" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O81" s="1"/>
     </row>
@@ -8045,22 +8082,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F82" s="43">
         <v>42</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H82" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I82">
         <v>10000</v>
@@ -8084,25 +8121,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F83" s="43">
         <v>42</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J83" t="b">
         <v>0</v>
@@ -8111,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="N83" s="23" t="s">
         <v>345</v>
-      </c>
-      <c r="N83" s="23" t="s">
-        <v>346</v>
       </c>
       <c r="O83" s="1"/>
     </row>
@@ -8123,22 +8160,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F84" s="43">
         <v>43</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H84" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I84">
         <v>10000</v>
@@ -8150,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M84" s="16" t="s">
         <v>140</v>
@@ -8165,25 +8202,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F85" s="43">
         <v>43</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J85" t="b">
         <v>0</v>
@@ -8192,10 +8229,10 @@
         <v>0</v>
       </c>
       <c r="M85" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O85" s="1"/>
     </row>
@@ -8204,22 +8241,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F86" s="43">
         <v>44</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H86" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I86">
         <v>10000</v>
@@ -8231,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="16" t="s">
-        <v>141</v>
+        <v>730</v>
       </c>
       <c r="N86" s="16"/>
       <c r="O86" s="1" t="s">
@@ -8243,25 +8280,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F87" s="43">
         <v>44</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H87" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J87" t="b">
         <v>0</v>
@@ -8270,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="M87" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N87" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O87" s="1"/>
     </row>
@@ -8282,22 +8319,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F88" s="43">
         <v>45</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H88" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I88">
         <v>10000</v>
@@ -8309,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N88" s="16"/>
       <c r="O88" s="1" t="s">
@@ -8321,25 +8358,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
+        <v>358</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="E89" t="s">
         <v>359</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="E89" t="s">
-        <v>360</v>
       </c>
       <c r="F89" s="43">
         <v>45</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H89" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J89" t="b">
         <v>0</v>
@@ -8348,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N89" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O89" s="1"/>
     </row>
@@ -8360,10 +8397,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D90" s="30" t="s">
         <v>46</v>
@@ -8372,10 +8409,10 @@
         <v>46</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I90">
         <v>10000</v>
@@ -8387,10 +8424,10 @@
         <v>0</v>
       </c>
       <c r="L90" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="M90" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="M90" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="N90" s="16"/>
       <c r="O90" s="1" t="s">
@@ -8402,25 +8439,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F91" s="43">
         <v>46</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H91" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J91" t="b">
         <v>0</v>
@@ -8429,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N91" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O91" s="1"/>
     </row>
@@ -8441,22 +8478,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F92" s="43">
         <v>47</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H92" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I92">
         <v>10000</v>
@@ -8468,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N92" s="16"/>
       <c r="O92" s="9" t="s">
@@ -8480,25 +8517,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F93" s="43">
         <v>47</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H93" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J93" t="b">
         <v>0</v>
@@ -8507,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="M93" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N93" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O93" s="9"/>
     </row>
@@ -8519,22 +8556,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F94" s="43">
         <v>48</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I94">
         <v>10000</v>
@@ -8546,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N94" s="16"/>
       <c r="O94" s="9" t="s">
@@ -8558,25 +8595,25 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C95" t="s">
+        <v>368</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="E95" t="s">
         <v>369</v>
-      </c>
-      <c r="D95" s="30" t="s">
-        <v>577</v>
-      </c>
-      <c r="E95" t="s">
-        <v>370</v>
       </c>
       <c r="F95" s="43">
         <v>48</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H95" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
@@ -8585,10 +8622,10 @@
         <v>0</v>
       </c>
       <c r="M95" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N95" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O95" s="9"/>
     </row>
@@ -8597,10 +8634,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D96" s="30" t="s">
         <v>50</v>
@@ -8609,10 +8646,10 @@
         <v>49</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H96" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I96">
         <v>10000</v>
@@ -8624,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N96" s="16"/>
       <c r="O96" s="9" t="s">
@@ -8636,25 +8673,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F97" s="43">
         <v>49</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H97" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J97" t="b">
         <v>0</v>
@@ -8663,10 +8700,10 @@
         <v>0</v>
       </c>
       <c r="M97" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N97" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O97" s="9"/>
     </row>
@@ -8675,23 +8712,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E98" s="17"/>
       <c r="F98" s="43">
         <v>50</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H98" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I98">
         <v>10000</v>
@@ -8703,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="M98" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="M98" s="16" t="s">
-        <v>150</v>
       </c>
       <c r="N98" s="16"/>
       <c r="O98" s="4" t="s">
@@ -8718,25 +8755,25 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F99" s="43">
         <v>50</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H99" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J99" t="b">
         <v>0</v>
@@ -8745,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="M99" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N99" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O99" s="4"/>
     </row>
@@ -8757,10 +8794,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D100" s="18" t="s">
         <v>53</v>
@@ -8770,10 +8807,10 @@
         <v>51</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I100">
         <v>10000</v>
@@ -8785,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N100" s="16"/>
       <c r="O100" s="1" t="s">
@@ -8797,25 +8834,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F101" s="43">
         <v>51</v>
       </c>
       <c r="G101" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H101" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J101" t="b">
         <v>0</v>
@@ -8824,10 +8861,10 @@
         <v>0</v>
       </c>
       <c r="M101" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N101" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O101" s="1"/>
     </row>
@@ -8836,22 +8873,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F102" s="43">
         <v>52</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H102" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I102">
         <v>10000</v>
@@ -8863,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="L102" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M102" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="M102" s="16" t="s">
-        <v>153</v>
       </c>
       <c r="N102" s="16"/>
       <c r="O102" s="4" t="s">
@@ -8878,25 +8915,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F103" s="43">
         <v>52</v>
       </c>
       <c r="G103" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H103" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J103" t="b">
         <v>0</v>
@@ -8905,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="M103" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N103" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O103" s="4"/>
     </row>
@@ -8917,22 +8954,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C104" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F104" s="43">
         <v>53</v>
       </c>
       <c r="G104" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H104" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I104">
         <v>10000</v>
@@ -8944,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N104" s="16"/>
       <c r="O104" s="10" t="s">
@@ -8956,25 +8993,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E105" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F105" s="43">
         <v>53</v>
       </c>
       <c r="G105" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H105" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J105" t="b">
         <v>0</v>
@@ -8983,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N105" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O105" s="10"/>
     </row>
@@ -8995,22 +9032,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F106" s="43">
         <v>54</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I106">
         <v>10000</v>
@@ -9022,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N106" s="16"/>
       <c r="O106" s="10" t="s">
@@ -9034,25 +9071,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F107" s="43">
         <v>54</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J107" t="b">
         <v>0</v>
@@ -9061,10 +9098,10 @@
         <v>0</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N107" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O107" s="10"/>
     </row>
@@ -9073,22 +9110,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C108" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="30" t="s">
         <v>156</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>157</v>
       </c>
       <c r="F108" s="43">
         <v>55</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I108">
         <v>10000</v>
@@ -9100,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N108" s="16"/>
       <c r="O108" s="10" t="s">
@@ -9112,25 +9149,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F109" s="43">
         <v>55</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H109" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J109" t="b">
         <v>0</v>
@@ -9139,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="M109" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N109" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O109" s="10"/>
     </row>
@@ -9151,22 +9188,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F110" s="43">
         <v>56</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H110" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I110">
         <v>10000</v>
@@ -9179,7 +9216,7 @@
       </c>
       <c r="L110" s="54"/>
       <c r="M110" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N110" s="16"/>
       <c r="O110" s="1" t="s">
@@ -9191,25 +9228,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F111" s="43">
         <v>56</v>
       </c>
       <c r="G111" s="46" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H111" s="50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J111" t="b">
         <v>0</v>
@@ -9218,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="M111" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N111" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O111" s="1"/>
     </row>
@@ -9230,22 +9267,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F112" s="43">
         <v>57</v>
       </c>
       <c r="G112" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H112" s="50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J112" s="48" t="b">
         <v>0</v>
@@ -9254,10 +9291,10 @@
         <v>0</v>
       </c>
       <c r="L112" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M112" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N112" s="23"/>
       <c r="O112" s="45"/>
@@ -9270,19 +9307,19 @@
         <v>85</v>
       </c>
       <c r="C113" t="s">
+        <v>159</v>
+      </c>
+      <c r="D113" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="F113" s="43">
         <v>58</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H113" s="48" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J113" t="b">
         <v>1</v>
@@ -9291,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N113" s="16"/>
       <c r="O113" s="1" t="s">
@@ -9306,22 +9343,22 @@
         <v>85</v>
       </c>
       <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="E114" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F114" s="43">
         <v>59</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H114" s="48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
@@ -9330,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N114" s="16"/>
       <c r="O114" s="11" t="s">
@@ -9345,19 +9382,19 @@
         <v>85</v>
       </c>
       <c r="C115" t="s">
+        <v>166</v>
+      </c>
+      <c r="D115" s="33" t="s">
         <v>167</v>
-      </c>
-      <c r="D115" s="33" t="s">
-        <v>168</v>
       </c>
       <c r="F115" s="43">
         <v>60</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
@@ -9366,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N115" s="16"/>
       <c r="O115" s="1" t="s">
@@ -9381,19 +9418,19 @@
         <v>85</v>
       </c>
       <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="33" t="s">
         <v>170</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="F116" s="43">
         <v>61</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H116" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
@@ -9402,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N116" s="16"/>
       <c r="O116" s="12" t="s">
@@ -9417,19 +9454,19 @@
         <v>85</v>
       </c>
       <c r="C117" t="s">
+        <v>172</v>
+      </c>
+      <c r="D117" s="33" t="s">
         <v>173</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>174</v>
       </c>
       <c r="F117" s="43">
         <v>62</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H117" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
@@ -9438,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N117" s="16"/>
       <c r="O117" s="12" t="s">
@@ -9456,16 +9493,16 @@
         <v>96</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F118" s="43">
         <v>63</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
@@ -9474,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N118" s="16"/>
       <c r="O118" s="13" t="s">
@@ -9492,16 +9529,16 @@
         <v>99</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F119" s="43">
         <v>64</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J119" t="b">
         <v>1</v>
@@ -9510,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N119" s="16"/>
       <c r="O119" s="13" t="s">
@@ -9525,22 +9562,22 @@
         <v>85</v>
       </c>
       <c r="C120" t="s">
+        <v>179</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="E120" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>683</v>
-      </c>
-      <c r="E120" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="F120" s="43">
         <v>65</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
@@ -9549,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="23" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N120" s="16"/>
       <c r="O120" s="12" t="s">
@@ -9564,22 +9601,22 @@
         <v>85</v>
       </c>
       <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="E121" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="D121" s="33" t="s">
-        <v>684</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="F121" s="43">
         <v>66</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H121" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I121">
         <v>10000</v>
@@ -9591,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N121" s="16"/>
       <c r="O121" s="12" t="s">
@@ -9606,10 +9643,10 @@
         <v>85</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>69</v>
@@ -9618,10 +9655,10 @@
         <v>67</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H122" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I122">
         <v>10000</v>
@@ -9633,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N122" s="16"/>
       <c r="O122" s="12" t="s">
@@ -9648,10 +9685,10 @@
         <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>70</v>
@@ -9660,10 +9697,10 @@
         <v>68</v>
       </c>
       <c r="G123" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J123" t="b">
         <v>1</v>
@@ -9672,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N123" s="16"/>
       <c r="O123" s="12" t="s">
@@ -9687,10 +9724,10 @@
         <v>85</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>71</v>
@@ -9699,10 +9736,10 @@
         <v>69</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I124">
         <v>1000</v>
@@ -9714,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N124" s="16"/>
       <c r="O124" s="12" t="s">
@@ -9732,16 +9769,16 @@
         <v>104</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F125" s="43">
         <v>70</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H125" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
@@ -9750,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N125" s="16"/>
       <c r="O125" s="1" t="s">
@@ -9762,22 +9799,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
         <v>106</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F126" s="43">
         <v>71</v>
       </c>
       <c r="G126" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H126" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J126" t="b">
         <v>1</v>
@@ -9786,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N126" s="16"/>
       <c r="O126" s="1" t="s">
@@ -9798,22 +9835,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F127" s="43">
         <v>72</v>
       </c>
       <c r="G127" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J127" t="b">
         <v>1</v>
@@ -9822,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N127" s="16"/>
       <c r="O127" s="1" t="s">
@@ -9837,22 +9874,22 @@
         <v>85</v>
       </c>
       <c r="C128" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D128" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E128" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F128" s="43">
         <v>73</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H128" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
@@ -9861,11 +9898,11 @@
         <v>0</v>
       </c>
       <c r="M128" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N128" s="16"/>
       <c r="O128" s="62" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="75">
@@ -9876,22 +9913,22 @@
         <v>85</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="E129" s="36" t="s">
         <v>405</v>
-      </c>
-      <c r="E129" s="36" t="s">
-        <v>406</v>
       </c>
       <c r="F129" s="43">
         <v>74</v>
       </c>
       <c r="G129" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H129" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J129" t="b">
         <v>0</v>
@@ -9900,10 +9937,10 @@
         <v>0</v>
       </c>
       <c r="M129" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O129" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="75">
@@ -9914,22 +9951,22 @@
         <v>85</v>
       </c>
       <c r="C130" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="E130" s="36" t="s">
         <v>409</v>
-      </c>
-      <c r="E130" s="36" t="s">
-        <v>410</v>
       </c>
       <c r="F130" s="43">
         <v>75</v>
       </c>
       <c r="G130" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H130" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J130" t="b">
         <v>0</v>
@@ -9938,10 +9975,10 @@
         <v>0</v>
       </c>
       <c r="M130" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O130" s="36" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="75">
@@ -9952,22 +9989,22 @@
         <v>85</v>
       </c>
       <c r="C131" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="E131" s="36" t="s">
         <v>413</v>
-      </c>
-      <c r="E131" s="36" t="s">
-        <v>414</v>
       </c>
       <c r="F131" s="43">
         <v>76</v>
       </c>
       <c r="G131" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H131" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J131" t="b">
         <v>0</v>
@@ -9976,10 +10013,10 @@
         <v>0</v>
       </c>
       <c r="M131" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O131" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="75">
@@ -9990,22 +10027,22 @@
         <v>85</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="36" t="s">
         <v>417</v>
-      </c>
-      <c r="E132" s="36" t="s">
-        <v>418</v>
       </c>
       <c r="F132" s="43">
         <v>77</v>
       </c>
       <c r="G132" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H132" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J132" t="b">
         <v>0</v>
@@ -10014,10 +10051,10 @@
         <v>0</v>
       </c>
       <c r="M132" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O132" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="75">
@@ -10028,22 +10065,22 @@
         <v>85</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="36" t="s">
         <v>421</v>
-      </c>
-      <c r="E133" s="36" t="s">
-        <v>422</v>
       </c>
       <c r="F133" s="43">
         <v>78</v>
       </c>
       <c r="G133" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J133" t="b">
         <v>0</v>
@@ -10052,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="M133" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O133" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="75">
@@ -10066,22 +10103,22 @@
         <v>85</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="36" t="s">
         <v>425</v>
-      </c>
-      <c r="E134" s="36" t="s">
-        <v>426</v>
       </c>
       <c r="F134" s="43">
         <v>79</v>
       </c>
       <c r="G134" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H134" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J134" t="b">
         <v>0</v>
@@ -10090,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="M134" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O134" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="75">
@@ -10104,22 +10141,22 @@
         <v>85</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="E135" s="36" t="s">
         <v>428</v>
-      </c>
-      <c r="E135" s="36" t="s">
-        <v>429</v>
       </c>
       <c r="F135" s="43">
         <v>80</v>
       </c>
       <c r="G135" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H135" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J135" t="b">
         <v>0</v>
@@ -10128,10 +10165,10 @@
         <v>0</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O135" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="75">
@@ -10142,22 +10179,22 @@
         <v>85</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>432</v>
-      </c>
       <c r="E136" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F136" s="43">
         <v>81</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J136" t="b">
         <v>0</v>
@@ -10166,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="M136" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O136" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="75">
@@ -10180,22 +10217,22 @@
         <v>85</v>
       </c>
       <c r="C137" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="E137" s="36" t="s">
         <v>435</v>
-      </c>
-      <c r="E137" s="36" t="s">
-        <v>436</v>
       </c>
       <c r="F137" s="43">
         <v>82</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H137" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J137" t="b">
         <v>0</v>
@@ -10204,10 +10241,10 @@
         <v>0</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O137" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="75">
@@ -10218,22 +10255,22 @@
         <v>85</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="36" t="s">
         <v>439</v>
-      </c>
-      <c r="E138" s="36" t="s">
-        <v>440</v>
       </c>
       <c r="F138" s="43">
         <v>83</v>
       </c>
       <c r="G138" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H138" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J138" t="b">
         <v>0</v>
@@ -10242,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="M138" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O138" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="60">
@@ -10256,22 +10293,22 @@
         <v>85</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="36" t="s">
         <v>443</v>
-      </c>
-      <c r="E139" s="36" t="s">
-        <v>444</v>
       </c>
       <c r="F139" s="43">
         <v>84</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J139" t="b">
         <v>0</v>
@@ -10280,10 +10317,10 @@
         <v>0</v>
       </c>
       <c r="M139" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O139" s="36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="60">
@@ -10294,22 +10331,22 @@
         <v>85</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="36" t="s">
         <v>447</v>
-      </c>
-      <c r="E140" s="36" t="s">
-        <v>448</v>
       </c>
       <c r="F140" s="43">
         <v>85</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H140" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J140" t="b">
         <v>0</v>
@@ -10318,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M140" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O140" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="75">
@@ -10332,22 +10369,22 @@
         <v>85</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="E141" s="36" t="s">
         <v>451</v>
-      </c>
-      <c r="E141" s="36" t="s">
-        <v>452</v>
       </c>
       <c r="F141" s="43">
         <v>86</v>
       </c>
       <c r="G141" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J141" t="b">
         <v>0</v>
@@ -10356,10 +10393,10 @@
         <v>0</v>
       </c>
       <c r="M141" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O141" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="45">
@@ -10370,22 +10407,22 @@
         <v>85</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D142" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="D142" s="38" t="s">
+      <c r="E142" s="36" t="s">
         <v>454</v>
-      </c>
-      <c r="E142" s="36" t="s">
-        <v>455</v>
       </c>
       <c r="F142" s="43">
         <v>87</v>
       </c>
       <c r="G142" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J142" t="b">
         <v>0</v>
@@ -10394,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="M142" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O142" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="45">
@@ -10408,22 +10445,22 @@
         <v>85</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D143" s="38" t="s">
         <v>457</v>
       </c>
-      <c r="D143" s="38" t="s">
+      <c r="E143" s="36" t="s">
         <v>458</v>
-      </c>
-      <c r="E143" s="36" t="s">
-        <v>459</v>
       </c>
       <c r="F143" s="43">
         <v>88</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H143" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J143" t="b">
         <v>0</v>
@@ -10432,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="M143" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O143" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="45">
@@ -10446,22 +10483,22 @@
         <v>85</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D144" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="D144" s="38" t="s">
+      <c r="E144" s="36" t="s">
         <v>462</v>
-      </c>
-      <c r="E144" s="36" t="s">
-        <v>463</v>
       </c>
       <c r="F144" s="43">
         <v>89</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J144" t="b">
         <v>0</v>
@@ -10470,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="M144" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O144" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="45">
@@ -10484,22 +10521,22 @@
         <v>85</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D145" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="D145" s="38" t="s">
+      <c r="E145" s="36" t="s">
         <v>466</v>
-      </c>
-      <c r="E145" s="36" t="s">
-        <v>467</v>
       </c>
       <c r="F145" s="43">
         <v>90</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H145" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J145" t="b">
         <v>0</v>
@@ -10508,10 +10545,10 @@
         <v>0</v>
       </c>
       <c r="M145" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O145" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="45">
@@ -10522,22 +10559,22 @@
         <v>85</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="D146" s="39" t="s">
+      <c r="E146" s="36" t="s">
         <v>470</v>
-      </c>
-      <c r="E146" s="36" t="s">
-        <v>471</v>
       </c>
       <c r="F146" s="43">
         <v>91</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J146" t="b">
         <v>0</v>
@@ -10546,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="M146" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O146" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="45">
@@ -10560,22 +10597,22 @@
         <v>85</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D147" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="D147" s="29" t="s">
+      <c r="E147" s="36" t="s">
         <v>474</v>
-      </c>
-      <c r="E147" s="36" t="s">
-        <v>475</v>
       </c>
       <c r="F147" s="43">
         <v>92</v>
       </c>
       <c r="G147" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J147" t="b">
         <v>0</v>
@@ -10584,10 +10621,10 @@
         <v>0</v>
       </c>
       <c r="M147" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O147" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="30">
@@ -10598,22 +10635,22 @@
         <v>85</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D148" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="E148" t="s">
         <v>478</v>
-      </c>
-      <c r="E148" t="s">
-        <v>479</v>
       </c>
       <c r="F148" s="43">
         <v>93</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H148" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J148" t="b">
         <v>0</v>
@@ -10622,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O148" s="29"/>
     </row>
@@ -10634,22 +10671,22 @@
         <v>85</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D149" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="D149" s="40" t="s">
-        <v>482</v>
-      </c>
       <c r="E149" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F149" s="43">
         <v>94</v>
       </c>
       <c r="G149" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H149" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J149" t="b">
         <v>0</v>
@@ -10658,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="M149" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="O149" t="s">
         <v>601</v>
-      </c>
-      <c r="O149" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="181" customHeight="1">
@@ -10672,22 +10709,22 @@
         <v>85</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D150" s="40" t="s">
         <v>483</v>
       </c>
-      <c r="D150" s="40" t="s">
-        <v>484</v>
-      </c>
       <c r="E150" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F150" s="43">
         <v>95</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H150" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J150" t="b">
         <v>0</v>
@@ -10696,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="M150" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="O150" t="s">
         <v>603</v>
-      </c>
-      <c r="O150" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="80">
@@ -10710,22 +10747,22 @@
         <v>85</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D151" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="D151" s="40" t="s">
-        <v>486</v>
-      </c>
       <c r="E151" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F151" s="43">
         <v>96</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H151" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J151" t="b">
         <v>0</v>
@@ -10734,10 +10771,10 @@
         <v>0</v>
       </c>
       <c r="M151" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="O151" t="s">
         <v>487</v>
-      </c>
-      <c r="O151" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="64">
@@ -10748,22 +10785,22 @@
         <v>85</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D152" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="D152" s="40" t="s">
-        <v>490</v>
-      </c>
       <c r="E152" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F152" s="43">
         <v>97</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H152" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J152" t="b">
         <v>0</v>
@@ -10772,10 +10809,10 @@
         <v>0</v>
       </c>
       <c r="M152" s="16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="80">
@@ -10786,22 +10823,22 @@
         <v>85</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D153" s="40" t="s">
         <v>492</v>
       </c>
-      <c r="D153" s="40" t="s">
-        <v>493</v>
-      </c>
       <c r="E153" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F153" s="43">
         <v>98</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H153" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J153" t="b">
         <v>0</v>
@@ -10810,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="M153" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="O153" t="s">
         <v>494</v>
-      </c>
-      <c r="O153" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="64">
@@ -10824,22 +10861,22 @@
         <v>85</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D154" s="40" t="s">
         <v>496</v>
       </c>
-      <c r="D154" s="40" t="s">
-        <v>497</v>
-      </c>
       <c r="E154" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F154" s="43">
         <v>99</v>
       </c>
       <c r="G154" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H154" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J154" t="b">
         <v>0</v>
@@ -10848,10 +10885,10 @@
         <v>0</v>
       </c>
       <c r="M154" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="O154" t="s">
         <v>498</v>
-      </c>
-      <c r="O154" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="64">
@@ -10862,22 +10899,22 @@
         <v>85</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D155" s="40" t="s">
         <v>500</v>
       </c>
-      <c r="D155" s="40" t="s">
-        <v>501</v>
-      </c>
       <c r="E155" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F155" s="43">
         <v>100</v>
       </c>
       <c r="G155" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H155" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J155" t="b">
         <v>0</v>
@@ -10886,10 +10923,10 @@
         <v>0</v>
       </c>
       <c r="M155" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="O155" t="s">
         <v>502</v>
-      </c>
-      <c r="O155" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="80">
@@ -10900,22 +10937,22 @@
         <v>85</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D156" s="40" t="s">
         <v>504</v>
       </c>
-      <c r="D156" s="40" t="s">
-        <v>505</v>
-      </c>
       <c r="E156" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F156" s="43">
         <v>101</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J156" t="b">
         <v>0</v>
@@ -10924,10 +10961,10 @@
         <v>0</v>
       </c>
       <c r="M156" s="35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O156" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="64">
@@ -10938,22 +10975,22 @@
         <v>85</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D157" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="D157" s="40" t="s">
-        <v>508</v>
-      </c>
       <c r="E157" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F157" s="43">
         <v>102</v>
       </c>
       <c r="G157" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H157" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J157" t="b">
         <v>0</v>
@@ -10962,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="M157" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="O157" t="s">
         <v>509</v>
-      </c>
-      <c r="O157" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="64">
@@ -10976,22 +11013,22 @@
         <v>85</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D158" s="40" t="s">
         <v>511</v>
       </c>
-      <c r="D158" s="40" t="s">
-        <v>512</v>
-      </c>
       <c r="E158" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F158" s="43">
         <v>103</v>
       </c>
       <c r="G158" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H158" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J158" t="b">
         <v>0</v>
@@ -11000,10 +11037,10 @@
         <v>0</v>
       </c>
       <c r="M158" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="O158" t="s">
         <v>513</v>
-      </c>
-      <c r="O158" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="64">
@@ -11014,22 +11051,22 @@
         <v>85</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D159" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="D159" s="40" t="s">
-        <v>516</v>
-      </c>
       <c r="E159" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F159" s="43">
         <v>104</v>
       </c>
       <c r="G159" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J159" t="b">
         <v>0</v>
@@ -11038,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="M159" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="O159" t="s">
         <v>517</v>
-      </c>
-      <c r="O159" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="48">
@@ -11052,22 +11089,22 @@
         <v>85</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D160" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="D160" s="40" t="s">
-        <v>520</v>
-      </c>
       <c r="E160" s="40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F160" s="43">
         <v>105</v>
       </c>
       <c r="G160" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J160" t="b">
         <v>0</v>
@@ -11076,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="M160" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O160" t="s">
         <v>137</v>
@@ -11090,22 +11127,22 @@
         <v>85</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D161" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D161" s="40" t="s">
-        <v>523</v>
-      </c>
       <c r="E161" s="40" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F161" s="43">
         <v>106</v>
       </c>
       <c r="G161" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J161" t="b">
         <v>0</v>
@@ -11114,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="M161" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="O161" t="s">
         <v>524</v>
-      </c>
-      <c r="O161" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="162" spans="1:19" ht="64">
@@ -11128,22 +11165,22 @@
         <v>85</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D162" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="D162" s="40" t="s">
-        <v>527</v>
-      </c>
       <c r="E162" s="40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F162" s="43">
         <v>107</v>
       </c>
       <c r="G162" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H162" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J162" t="b">
         <v>0</v>
@@ -11152,10 +11189,10 @@
         <v>0</v>
       </c>
       <c r="M162" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="O162" s="36" t="s">
         <v>528</v>
-      </c>
-      <c r="O162" s="36" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="163" spans="1:19" ht="64">
@@ -11166,22 +11203,22 @@
         <v>85</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D163" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F163" s="43">
         <v>108</v>
       </c>
       <c r="G163" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J163" t="b">
         <v>0</v>
@@ -11190,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:19" ht="45">
@@ -11198,25 +11235,25 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D164" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="D164" s="29" t="s">
+      <c r="E164" s="29" t="s">
         <v>607</v>
-      </c>
-      <c r="E164" s="29" t="s">
-        <v>608</v>
       </c>
       <c r="F164" s="43">
         <v>109</v>
       </c>
       <c r="G164" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J164" t="b">
         <v>0</v>
@@ -11225,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -11236,25 +11273,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D165" s="29" t="s">
         <v>610</v>
       </c>
-      <c r="D165" s="29" t="s">
-        <v>611</v>
-      </c>
       <c r="E165" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F165" s="43">
         <v>110</v>
       </c>
       <c r="G165" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J165" t="b">
         <v>0</v>
@@ -11263,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
@@ -11274,25 +11311,25 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D166" s="29" t="s">
         <v>612</v>
       </c>
-      <c r="D166" s="29" t="s">
-        <v>613</v>
-      </c>
       <c r="E166" s="29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F166" s="43">
         <v>111</v>
       </c>
       <c r="G166" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J166" t="b">
         <v>0</v>
@@ -11301,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
@@ -11312,25 +11349,25 @@
         <v>166</v>
       </c>
       <c r="B167" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C167" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="D167" s="52" t="s">
         <v>616</v>
       </c>
-      <c r="D167" s="52" t="s">
-        <v>617</v>
-      </c>
       <c r="E167" s="52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F167" s="43">
         <v>112</v>
       </c>
       <c r="G167" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H167" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I167" s="44"/>
       <c r="J167" s="44" t="b">
@@ -11341,7 +11378,7 @@
       </c>
       <c r="L167" s="44"/>
       <c r="M167" s="47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="168" spans="1:19" ht="30">
@@ -11349,25 +11386,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D168" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E168" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F168" s="43">
         <v>113</v>
       </c>
       <c r="G168" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H168" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I168" s="44"/>
       <c r="J168" s="44" t="b">
@@ -11378,7 +11415,7 @@
       </c>
       <c r="L168" s="44"/>
       <c r="M168" s="47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="169" spans="1:19" ht="30">
@@ -11386,25 +11423,25 @@
         <v>168</v>
       </c>
       <c r="B169" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D169" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E169" s="52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F169" s="43">
         <v>114</v>
       </c>
       <c r="G169" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H169" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I169" s="44"/>
       <c r="J169" s="44" t="b">
@@ -11415,7 +11452,7 @@
       </c>
       <c r="L169" s="44"/>
       <c r="M169" s="47" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="170" spans="1:19" s="65" customFormat="1" ht="45">
@@ -11423,25 +11460,25 @@
         <v>173</v>
       </c>
       <c r="B170" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C170" s="66" t="s">
+        <v>716</v>
+      </c>
+      <c r="D170" s="67" t="s">
         <v>717</v>
       </c>
-      <c r="D170" s="67" t="s">
-        <v>718</v>
-      </c>
       <c r="E170" s="68" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F170" s="69">
         <v>119</v>
       </c>
       <c r="G170" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H170" s="65" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J170" s="65" t="b">
         <v>0</v>
@@ -11451,7 +11488,7 @@
       </c>
       <c r="L170" s="66"/>
       <c r="M170" s="71" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N170" s="66"/>
     </row>
@@ -11460,25 +11497,25 @@
         <v>177</v>
       </c>
       <c r="B171" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C171" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="D171" s="63" t="s">
         <v>719</v>
       </c>
-      <c r="D171" s="63" t="s">
-        <v>720</v>
-      </c>
       <c r="E171" s="52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F171" s="43">
         <v>120</v>
       </c>
       <c r="G171" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J171" s="48" t="b">
         <v>0</v>
@@ -11487,22 +11524,81 @@
         <v>0</v>
       </c>
       <c r="M171" s="41" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19">
-      <c r="A172" s="48"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
-    </row>
-    <row r="173" spans="1:19">
-      <c r="A173" s="48"/>
-      <c r="B173" s="45"/>
-      <c r="C173" s="45"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="64"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="45">
+      <c r="A172" s="48">
+        <v>178</v>
+      </c>
+      <c r="B172" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C172" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="D172" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="E172" s="64" t="s">
+        <v>726</v>
+      </c>
+      <c r="F172" s="43">
+        <v>121</v>
+      </c>
+      <c r="G172" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="J172" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="41" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="150">
+      <c r="A173" s="48">
+        <v>179</v>
+      </c>
+      <c r="B173" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C173" s="45" t="s">
+        <v>725</v>
+      </c>
+      <c r="D173" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="E173" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="F173" s="43">
+        <v>122</v>
+      </c>
+      <c r="G173" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H173" s="48" t="s">
+        <v>608</v>
+      </c>
+      <c r="J173" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M173" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="48"/>
